--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Unicommerce Esolutions Ltd/Pruned_Excel/Semi_Final/Unicommerce Esolutions Ltd_Semi_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Unicommerce Esolutions Ltd/Pruned_Excel/Semi_Final/Unicommerce Esolutions Ltd_Semi_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>Balance Sheet of Unicommerce Esolutions(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,21 +62,6 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
-  </si>
-  <si>
     <t>Cash Flow of Unicommerce Esolutions(in Rs. Cr.)</t>
   </si>
   <si>
@@ -170,6 +158,9 @@
     <t>Quarterly Results of Unicommerce Esolutions(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -224,19 +215,16 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
   </si>
   <si>
     <t>Key Financial Ratios of Unicommerce Esolutions(in Rs. Cr.)</t>
@@ -648,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,209 +682,227 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>2020</v>
+      </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>0.02</v>
-      </c>
-      <c r="C2">
-        <v>26.54</v>
       </c>
       <c r="D2">
         <v>26.54</v>
       </c>
       <c r="E2">
+        <v>26.54</v>
+      </c>
+      <c r="F2">
         <v>26.57</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3.15</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>6.26</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>34.05</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.55</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>21.57</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>12.48</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>34.05</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2021</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>0.02</v>
-      </c>
-      <c r="C3">
-        <v>33.08</v>
       </c>
       <c r="D3">
         <v>33.08</v>
       </c>
       <c r="E3">
+        <v>33.08</v>
+      </c>
+      <c r="F3">
         <v>33.11</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5.88</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>11.23</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>46.03</v>
-      </c>
-      <c r="I3">
-        <v>0.6</v>
       </c>
       <c r="J3">
         <v>0.6</v>
       </c>
       <c r="K3">
+        <v>0.6</v>
+      </c>
+      <c r="L3">
         <v>0.7</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>45.33</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>46.03</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2022</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>0.02</v>
-      </c>
-      <c r="C4">
-        <v>41.18</v>
       </c>
       <c r="D4">
         <v>41.18</v>
       </c>
       <c r="E4">
+        <v>41.18</v>
+      </c>
+      <c r="F4">
         <v>41.2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6.67</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>14.64</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>59.03</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>33.61</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>25.43</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>59.03</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2023</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.02</v>
-      </c>
-      <c r="C5">
-        <v>51.7</v>
       </c>
       <c r="D5">
         <v>51.7</v>
       </c>
       <c r="E5">
+        <v>51.7</v>
+      </c>
+      <c r="F5">
         <v>51.73</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>15.15</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>25.2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>81.73999999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.92</v>
       </c>
       <c r="J5">
         <v>0.92</v>
       </c>
       <c r="K5">
+        <v>0.92</v>
+      </c>
+      <c r="L5">
         <v>6.91</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>74.83</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>81.73999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2024</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>5.89</v>
-      </c>
-      <c r="C6">
-        <v>62.86</v>
       </c>
       <c r="D6">
         <v>62.86</v>
       </c>
       <c r="E6">
+        <v>62.86</v>
+      </c>
+      <c r="F6">
         <v>68.75</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>16.89</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>30.6</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>109.11</v>
-      </c>
-      <c r="I6">
-        <v>7.93</v>
       </c>
       <c r="J6">
         <v>7.93</v>
       </c>
       <c r="K6">
+        <v>7.93</v>
+      </c>
+      <c r="L6">
         <v>16.97</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>92.14</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>109.11</v>
       </c>
     </row>
@@ -907,183 +913,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>2020</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>-3.37</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-3.55</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.65</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>-4.2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.28</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.09</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2021</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>5.4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10.05</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-3.34</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>6.71</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.09</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>7.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2022</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>6.92</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7.82</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-13.78</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>-5.96</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>7.8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.84</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2023</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>8.859999999999999</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>14.58</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10.34</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>24.92</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.84</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>26.76</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2024</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>17.48</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6.01</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-29.52</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-1.97</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>-25.48</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>26.76</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.27</v>
       </c>
     </row>
@@ -1094,86 +1118,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2020</v>
       </c>
       <c r="B2">
-        <v>33.64</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>33.64</v>
@@ -1182,46 +1209,46 @@
         <v>33.64</v>
       </c>
       <c r="E2">
+        <v>33.64</v>
+      </c>
+      <c r="F2">
         <v>0.04</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>33.68</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4.27</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>27.8</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>0.28</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4.69</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>37.05</v>
-      </c>
-      <c r="M2">
-        <v>-3.37</v>
       </c>
       <c r="N2">
         <v>-3.37</v>
       </c>
       <c r="O2">
+        <v>-3.37</v>
+      </c>
+      <c r="P2">
         <v>2.77</v>
       </c>
-      <c r="P2">
-        <v>-0.837</v>
-      </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>0.19</v>
-      </c>
-      <c r="R2">
-        <v>-3.56</v>
       </c>
       <c r="S2">
         <v>-3.56</v>
@@ -1230,18 +1257,21 @@
         <v>-3.56</v>
       </c>
       <c r="U2">
-        <v>-1562</v>
+        <v>-3.56</v>
       </c>
       <c r="V2">
         <v>-1562</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>14</v>
+      <c r="W2">
+        <v>-1562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2021</v>
       </c>
       <c r="B3">
-        <v>42.14</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>42.14</v>
@@ -1250,46 +1280,46 @@
         <v>42.14</v>
       </c>
       <c r="E3">
+        <v>42.14</v>
+      </c>
+      <c r="F3">
         <v>0.04</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>42.18</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.17</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>30.1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0.29</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3.23</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>36.79</v>
-      </c>
-      <c r="M3">
-        <v>5.4</v>
       </c>
       <c r="N3">
         <v>5.4</v>
       </c>
       <c r="O3">
+        <v>5.4</v>
+      </c>
+      <c r="P3">
         <v>0.88</v>
       </c>
-      <c r="P3">
-        <v>-0.837</v>
-      </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0.88</v>
-      </c>
-      <c r="R3">
-        <v>4.51</v>
       </c>
       <c r="S3">
         <v>4.51</v>
@@ -1298,18 +1328,21 @@
         <v>4.51</v>
       </c>
       <c r="U3">
+        <v>4.51</v>
+      </c>
+      <c r="V3">
         <v>1979</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1056</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2022</v>
       </c>
       <c r="B4">
-        <v>59.03</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>59.03</v>
@@ -1318,46 +1351,46 @@
         <v>59.03</v>
       </c>
       <c r="E4">
+        <v>59.03</v>
+      </c>
+      <c r="F4">
         <v>2.33</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>61.36</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3.26</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>42.38</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0.45</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>8.359999999999999</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>54.45</v>
-      </c>
-      <c r="M4">
-        <v>6.92</v>
       </c>
       <c r="N4">
         <v>6.92</v>
       </c>
       <c r="O4">
+        <v>6.92</v>
+      </c>
+      <c r="P4">
         <v>2.34</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-1.43</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.91</v>
-      </c>
-      <c r="R4">
-        <v>6.01</v>
       </c>
       <c r="S4">
         <v>6.01</v>
@@ -1366,18 +1399,21 @@
         <v>6.01</v>
       </c>
       <c r="U4">
+        <v>6.01</v>
+      </c>
+      <c r="V4">
         <v>0.6</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.55</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2023</v>
       </c>
       <c r="B5">
-        <v>90.06</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>90.06</v>
@@ -1386,46 +1422,46 @@
         <v>90.06</v>
       </c>
       <c r="E5">
+        <v>90.06</v>
+      </c>
+      <c r="F5">
         <v>2.91</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>92.97</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5.4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>62.02</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0.58</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>16.11</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>84.11</v>
-      </c>
-      <c r="M5">
-        <v>8.859999999999999</v>
       </c>
       <c r="N5">
         <v>8.859999999999999</v>
       </c>
       <c r="O5">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="P5">
         <v>3.08</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-0.7</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2.38</v>
-      </c>
-      <c r="R5">
-        <v>6.48</v>
       </c>
       <c r="S5">
         <v>6.48</v>
@@ -1434,18 +1470,21 @@
         <v>6.48</v>
       </c>
       <c r="U5">
+        <v>6.48</v>
+      </c>
+      <c r="V5">
         <v>0.64</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.58</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2024</v>
       </c>
       <c r="B6">
-        <v>103.58</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>103.58</v>
@@ -1454,46 +1493,46 @@
         <v>103.58</v>
       </c>
       <c r="E6">
+        <v>103.58</v>
+      </c>
+      <c r="F6">
         <v>5.85</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>109.43</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5.41</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>64.95999999999999</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.39</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2.4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>18.8</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>91.95999999999999</v>
-      </c>
-      <c r="M6">
-        <v>17.48</v>
       </c>
       <c r="N6">
         <v>17.48</v>
       </c>
       <c r="O6">
+        <v>17.48</v>
+      </c>
+      <c r="P6">
         <v>4.78</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-0.38</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4.4</v>
-      </c>
-      <c r="R6">
-        <v>13.08</v>
       </c>
       <c r="S6">
         <v>13.08</v>
@@ -1502,9 +1541,12 @@
         <v>13.08</v>
       </c>
       <c r="U6">
+        <v>13.08</v>
+      </c>
+      <c r="V6">
         <v>1.3</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1.16</v>
       </c>
     </row>
@@ -1515,134 +1557,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2">
+      <c r="D2">
         <v>25.93</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>25.93</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>17.09</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.5</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>5.24</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>3.1</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1.85</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>4.95</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K2">
-        <v>4.88</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
       </c>
       <c r="M2">
         <v>4.88</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>4.88</v>
+      </c>
+      <c r="P2">
         <v>1.19</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>3.69</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>3.69</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.02</v>
-      </c>
-      <c r="R2">
-        <v>0.37</v>
-      </c>
-      <c r="S2">
-        <v>0.33</v>
       </c>
       <c r="T2">
         <v>0.37</v>
@@ -1650,64 +1698,70 @@
       <c r="U2">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>69</v>
+      <c r="V2">
+        <v>0.37</v>
+      </c>
+      <c r="W2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2023</v>
       </c>
       <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
         <v>25.96</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>25.96</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>14.37</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.9</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>7.04</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>3.66</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1.7</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>5.36</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.15</v>
-      </c>
-      <c r="K3">
-        <v>5.2</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>5.2</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>5.2</v>
+      </c>
+      <c r="P3">
         <v>1.37</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>3.83</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>3.83</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>5.89</v>
-      </c>
-      <c r="R3">
-        <v>0.65</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
       </c>
       <c r="T3">
         <v>0.65</v>
@@ -1715,64 +1769,70 @@
       <c r="U3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>70</v>
+      <c r="V3">
+        <v>0.65</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2024</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
         <v>26.53</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>26.53</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>16.07</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.86</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>6.83</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>2.77</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1.19</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>3.97</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.17</v>
-      </c>
-      <c r="K4">
-        <v>3.8</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
       <c r="M4">
         <v>3.8</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>3.8</v>
+      </c>
+      <c r="P4">
         <v>0.92</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>2.88</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>2.88</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>5.89</v>
-      </c>
-      <c r="R4">
-        <v>0.28</v>
-      </c>
-      <c r="S4">
-        <v>0.26</v>
       </c>
       <c r="T4">
         <v>0.28</v>
@@ -1780,64 +1840,70 @@
       <c r="U4">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>71</v>
+      <c r="V4">
+        <v>0.28</v>
+      </c>
+      <c r="W4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2024</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
         <v>27.47</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>27.47</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>16.55</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.85</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>6.73</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>3.34</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.55</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>4.89</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.16</v>
-      </c>
-      <c r="K5">
-        <v>4.74</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
       </c>
       <c r="M5">
         <v>4.74</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>4.74</v>
+      </c>
+      <c r="P5">
         <v>1.23</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>3.51</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>3.51</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>5.89</v>
-      </c>
-      <c r="R5">
-        <v>0.35</v>
-      </c>
-      <c r="S5">
-        <v>0.31</v>
       </c>
       <c r="T5">
         <v>0.35</v>
@@ -1845,69 +1911,81 @@
       <c r="U5">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>72</v>
+      <c r="V5">
+        <v>0.35</v>
+      </c>
+      <c r="W5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2024</v>
       </c>
       <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
         <v>29.31</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>29.31</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>16.09</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.85</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>7.5</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>4.87</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>1.29</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>6.16</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.14</v>
-      </c>
-      <c r="K6">
-        <v>6.02</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
       <c r="M6">
         <v>6.02</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>6.02</v>
+      </c>
+      <c r="P6">
         <v>1.54</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>4.47</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>4.47</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>10.24</v>
-      </c>
-      <c r="R6">
-        <v>0.44</v>
-      </c>
-      <c r="S6">
-        <v>0.4</v>
       </c>
       <c r="T6">
         <v>0.44</v>
       </c>
       <c r="U6">
+        <v>0.4</v>
+      </c>
+      <c r="V6">
+        <v>0.44</v>
+      </c>
+      <c r="W6">
         <v>0.4</v>
       </c>
     </row>
@@ -1918,108 +1996,111 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2">
+        <v>2020</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>14748.34</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-1353.38</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-1477.3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-1478</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-1562.49</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-9.17</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-10.01</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-10.02</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-10.59</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>-13.41</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-10.46</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
@@ -2035,47 +2116,50 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>14</v>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>2021</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>18473.32</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2490.98</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2365.91</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2365.53</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1979.33</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>13.48</v>
-      </c>
-      <c r="H3">
-        <v>12.8</v>
       </c>
       <c r="I3">
         <v>12.8</v>
       </c>
       <c r="J3">
+        <v>12.8</v>
+      </c>
+      <c r="K3">
         <v>10.71</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>13.63</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>9.800000000000001</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -2091,47 +2175,50 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>15</v>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>2022</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>25666.09</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3204.35</v>
-      </c>
-      <c r="D4">
-        <v>3007.39</v>
       </c>
       <c r="E4">
         <v>3007.39</v>
       </c>
       <c r="F4">
+        <v>3007.39</v>
+      </c>
+      <c r="G4">
         <v>2613.04</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>12.48</v>
-      </c>
-      <c r="H4">
-        <v>11.71</v>
       </c>
       <c r="I4">
         <v>11.71</v>
       </c>
       <c r="J4">
+        <v>11.71</v>
+      </c>
+      <c r="K4">
         <v>10.18</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>14.58</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10.18</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
@@ -2147,47 +2234,50 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>16</v>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>2023</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>39155.65</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4105.22</v>
-      </c>
-      <c r="D5">
-        <v>3851.74</v>
       </c>
       <c r="E5">
         <v>3851.74</v>
       </c>
       <c r="F5">
+        <v>3851.74</v>
+      </c>
+      <c r="G5">
         <v>2815.65</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10.48</v>
-      </c>
-      <c r="H5">
-        <v>9.83</v>
       </c>
       <c r="I5">
         <v>9.83</v>
       </c>
       <c r="J5">
+        <v>9.83</v>
+      </c>
+      <c r="K5">
         <v>7.19</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>12.51</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7.92</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -2203,47 +2293,50 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>17</v>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>2024</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>17.59</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3.44</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3.03</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.97</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.22</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>19.56</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>17.25</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>16.87</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>12.62</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>19.02</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>11.98</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
@@ -2257,6 +2350,9 @@
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>0</v>
       </c>
     </row>
